--- a/demo/tablas_excel/CR/revocando_uno_a_uno/avgrevocation.xlsx
+++ b/demo/tablas_excel/CR/revocando_uno_a_uno/avgrevocation.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29.56</v>
+        <v>2.956</v>
       </c>
       <c r="C2" t="n">
-        <v>57.48</v>
+        <v>2.874</v>
       </c>
       <c r="D2" t="n">
-        <v>147.98</v>
+        <v>2.9596</v>
       </c>
       <c r="E2" t="n">
-        <v>309.48</v>
+        <v>3.0948</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.32</v>
+        <v>2.732</v>
       </c>
       <c r="C3" t="n">
-        <v>57.47</v>
+        <v>2.8735</v>
       </c>
       <c r="D3" t="n">
-        <v>147.98</v>
+        <v>2.9596</v>
       </c>
       <c r="E3" t="n">
-        <v>308.76</v>
+        <v>3.0876</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.31</v>
+        <v>2.731</v>
       </c>
       <c r="C4" t="n">
-        <v>57.48</v>
+        <v>2.874</v>
       </c>
       <c r="D4" t="n">
-        <v>151.49</v>
+        <v>3.0298</v>
       </c>
       <c r="E4" t="n">
-        <v>312.26</v>
+        <v>3.1226</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.31</v>
+        <v>2.731</v>
       </c>
       <c r="C5" t="n">
-        <v>58.63</v>
+        <v>2.9315</v>
       </c>
       <c r="D5" t="n">
-        <v>149.37</v>
+        <v>2.9874</v>
       </c>
       <c r="E5" t="n">
-        <v>301.2</v>
+        <v>3.012</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.32</v>
+        <v>2.732</v>
       </c>
       <c r="C6" t="n">
-        <v>57.47</v>
+        <v>2.8735</v>
       </c>
       <c r="D6" t="n">
-        <v>147.99</v>
+        <v>2.9598</v>
       </c>
       <c r="E6" t="n">
-        <v>319.99</v>
+        <v>3.1999</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.38</v>
+        <v>2.738</v>
       </c>
       <c r="C7" t="n">
-        <v>57.43</v>
+        <v>2.8715</v>
       </c>
       <c r="D7" t="n">
-        <v>148.08</v>
+        <v>2.9616</v>
       </c>
       <c r="E7" t="n">
-        <v>312.33</v>
+        <v>3.1233</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.32</v>
+        <v>2.732</v>
       </c>
       <c r="C8" t="n">
-        <v>57.49</v>
+        <v>2.8745</v>
       </c>
       <c r="D8" t="n">
-        <v>152.77</v>
+        <v>3.0554</v>
       </c>
       <c r="E8" t="n">
-        <v>302.38</v>
+        <v>3.0238</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.31</v>
+        <v>2.731</v>
       </c>
       <c r="C9" t="n">
-        <v>57.5</v>
+        <v>2.875</v>
       </c>
       <c r="D9" t="n">
-        <v>147.96</v>
+        <v>2.9592</v>
       </c>
       <c r="E9" t="n">
-        <v>309.62</v>
+        <v>3.0962</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.35</v>
+        <v>2.735</v>
       </c>
       <c r="C10" t="n">
-        <v>58.74</v>
+        <v>2.937</v>
       </c>
       <c r="D10" t="n">
-        <v>147.99</v>
+        <v>2.9598</v>
       </c>
       <c r="E10" t="n">
-        <v>310.19</v>
+        <v>3.1019</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.29</v>
+        <v>2.729</v>
       </c>
       <c r="C11" t="n">
-        <v>57.51</v>
+        <v>2.8755</v>
       </c>
       <c r="D11" t="n">
-        <v>150.62</v>
+        <v>3.0124</v>
       </c>
       <c r="E11" t="n">
-        <v>305.23</v>
+        <v>3.0523</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.34</v>
+        <v>2.734</v>
       </c>
       <c r="C12" t="n">
-        <v>57.5</v>
+        <v>2.875</v>
       </c>
       <c r="D12" t="n">
-        <v>148.39</v>
+        <v>2.9678</v>
       </c>
       <c r="E12" t="n">
-        <v>301.37</v>
+        <v>3.0137</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.45</v>
+        <v>2.845</v>
       </c>
       <c r="C13" t="n">
-        <v>57.5</v>
+        <v>2.875</v>
       </c>
       <c r="D13" t="n">
-        <v>147.99</v>
+        <v>2.9598</v>
       </c>
       <c r="E13" t="n">
-        <v>317.96</v>
+        <v>3.1796</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.35</v>
+        <v>2.735</v>
       </c>
       <c r="C14" t="n">
-        <v>57.46</v>
+        <v>2.873</v>
       </c>
       <c r="D14" t="n">
-        <v>147.96</v>
+        <v>2.9592</v>
       </c>
       <c r="E14" t="n">
-        <v>307.02</v>
+        <v>3.0702</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.33</v>
+        <v>2.733</v>
       </c>
       <c r="C15" t="n">
-        <v>59.22</v>
+        <v>2.961</v>
       </c>
       <c r="D15" t="n">
-        <v>147.99</v>
+        <v>2.9598</v>
       </c>
       <c r="E15" t="n">
-        <v>303.56</v>
+        <v>3.0356</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.33</v>
+        <v>2.733</v>
       </c>
       <c r="C16" t="n">
-        <v>57.5</v>
+        <v>2.875</v>
       </c>
       <c r="D16" t="n">
-        <v>150.66</v>
+        <v>3.0132</v>
       </c>
       <c r="E16" t="n">
-        <v>311.2</v>
+        <v>3.112</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.37</v>
+        <v>2.737</v>
       </c>
       <c r="C17" t="n">
-        <v>57.53</v>
+        <v>2.8765</v>
       </c>
       <c r="D17" t="n">
-        <v>148.33</v>
+        <v>2.9666</v>
       </c>
       <c r="E17" t="n">
-        <v>300.76</v>
+        <v>3.0076</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.34</v>
+        <v>2.734</v>
       </c>
       <c r="C18" t="n">
-        <v>57.46</v>
+        <v>2.873</v>
       </c>
       <c r="D18" t="n">
-        <v>147.95</v>
+        <v>2.959</v>
       </c>
       <c r="E18" t="n">
-        <v>323.58</v>
+        <v>3.2358</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.34</v>
+        <v>2.734</v>
       </c>
       <c r="C19" t="n">
-        <v>57.47</v>
+        <v>2.8735</v>
       </c>
       <c r="D19" t="n">
-        <v>155.26</v>
+        <v>3.1052</v>
       </c>
       <c r="E19" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294117</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>29.14</v>
+        <v>2.914</v>
       </c>
       <c r="C20" t="n">
-        <v>59.58</v>
+        <v>2.979</v>
       </c>
       <c r="D20" t="n">
-        <v>155.75</v>
+        <v>3.115</v>
       </c>
       <c r="E20" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.33</v>
+        <v>2.733</v>
       </c>
       <c r="C21" t="n">
-        <v>57.48</v>
+        <v>2.874</v>
       </c>
       <c r="D21" t="n">
-        <v>190.21</v>
+        <v>3.8042</v>
       </c>
       <c r="E21" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>27.31</v>
+        <v>2.731</v>
       </c>
       <c r="C22" t="n">
-        <v>57.51</v>
+        <v>2.8755</v>
       </c>
       <c r="D22" t="n">
-        <v>154.64</v>
+        <v>3.0928</v>
       </c>
       <c r="E22" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27.37</v>
+        <v>2.737</v>
       </c>
       <c r="C23" t="n">
-        <v>57.5</v>
+        <v>2.875</v>
       </c>
       <c r="D23" t="n">
-        <v>148.93</v>
+        <v>2.9786</v>
       </c>
       <c r="E23" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27.34</v>
+        <v>2.734</v>
       </c>
       <c r="C24" t="n">
-        <v>57.8</v>
+        <v>2.89</v>
       </c>
       <c r="D24" t="n">
-        <v>166</v>
+        <v>3.32</v>
       </c>
       <c r="E24" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27.55695652173913</v>
+        <v>2.755695652173913</v>
       </c>
       <c r="C25" t="n">
-        <v>57.76999999999999</v>
+        <v>2.8885</v>
       </c>
       <c r="D25" t="n">
-        <v>152.2734782608695</v>
+        <v>3.045469565217391</v>
       </c>
       <c r="E25" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27.55695652173913</v>
+        <v>2.755695652173913</v>
       </c>
       <c r="C26" t="n">
-        <v>57.76999999999999</v>
+        <v>2.888499999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>152.2734782608695</v>
+        <v>3.04546956521739</v>
       </c>
       <c r="E26" t="n">
-        <v>309.2288235294118</v>
+        <v>3.092288235294118</v>
       </c>
     </row>
   </sheetData>
